--- a/biology/Botanique/Roger_Vaultier/Roger_Vaultier.xlsx
+++ b/biology/Botanique/Roger_Vaultier/Roger_Vaultier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Vaultier (1908-1960) est un écrivain français régionaliste appartenant à une vieille famille du Cotentin. Il est l'auteur de nombreux ouvrages sur le vin et la gastronomie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Vaultier (1908-1960) est un écrivain français régionaliste appartenant à une vieille famille du Cotentin. Il est l'auteur de nombreux ouvrages sur le vin et la gastronomie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le folklore pendant la Guerre de cent ans : d'après les lettres de rémission du Trésor des chartes, Paris, Librairie Guénégaud,, 1965, XXIV-249 p. (présentation en ligne), [présentation en ligne].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le folklore pendant la Guerre de cent ans : d'après les lettres de rémission du Trésor des chartes, Paris, Librairie Guénégaud 1965, XXIV-249 p. (présentation en ligne), [présentation en ligne].
 Chronologie anecdotique du vignoble français d'après les documents recueillis par Pierre Andrieu et Roger Vaultier, Maurice Ponsot, Paris, 1944. C'est l'histoire des vignes françaises des origines à nos jours avec de nombreuses anecdotes.
 Chansons bachiques des provinces de France, illustrations de Van Rompaey. Maurice Ponsot, Paris, 1945. Anthologie de chansons à boire qui composent le folklore bachique des provinces françaises. Elles sont accompagnées de notes historiques, biographiques et régionalistes. Les chansons sont classées par province.
 Le vin et les médecins à travers les âges. Illustrations de Van Rompaey. Maurice Ponsot, Paris, 1946.
